--- a/data/trans_orig/P5711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3AAFBED-434D-473F-8357-11A4AF948070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15BE5C7-73ED-44A8-9B76-A93E8DF54695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1902F173-2F87-49C1-B011-266FFB33DD1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4E08B47-8A29-4BD3-9176-7CB19CD5583C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="630">
   <si>
     <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>62,79%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>55,95%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>21,91%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,1795 +137,1798 @@
     <t>10,48%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78A4B9E-9AD1-40F5-8FD4-73ACAA46518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027D10C4-58A5-4CEB-A076-224BE53AE3A4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2925,10 +2928,10 @@
         <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -2937,13 +2940,13 @@
         <v>53951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -2952,13 +2955,13 @@
         <v>79804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2976,13 @@
         <v>8956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2988,13 +2991,13 @@
         <v>12417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -3003,13 +3006,13 @@
         <v>21373</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,7 +3068,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3077,13 +3080,13 @@
         <v>389914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -3092,13 +3095,13 @@
         <v>327018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>686</v>
@@ -3107,13 +3110,13 @@
         <v>716932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3131,13 @@
         <v>113859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3143,13 +3146,13 @@
         <v>102147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -3158,13 +3161,13 @@
         <v>216006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3182,13 @@
         <v>32691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3194,13 +3197,13 @@
         <v>29689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3209,13 +3212,13 @@
         <v>62380</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3233,13 @@
         <v>13858</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3245,13 +3248,13 @@
         <v>13058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3260,13 +3263,13 @@
         <v>26916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3296,13 +3299,13 @@
         <v>4500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3311,13 +3314,13 @@
         <v>4500</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3388,13 @@
         <v>2299384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>2068</v>
@@ -3400,13 +3403,13 @@
         <v>2097549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>4322</v>
@@ -3415,13 +3418,13 @@
         <v>4396932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3439,13 @@
         <v>642729</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>724</v>
@@ -3451,13 +3454,13 @@
         <v>748737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1360</v>
@@ -3466,13 +3469,13 @@
         <v>1391466</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3490,13 @@
         <v>234958</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>306</v>
@@ -3502,13 +3505,13 @@
         <v>320689</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>536</v>
@@ -3517,13 +3520,13 @@
         <v>555647</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3541,13 @@
         <v>80333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -3553,13 +3556,13 @@
         <v>171184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -3568,7 +3571,7 @@
         <v>251517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>182</v>
@@ -3607,10 +3610,10 @@
         <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -3619,13 +3622,13 @@
         <v>59095</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3684,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBCAA3F-EF36-40FF-8E9F-4BA68746E36E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15835F-2DB9-4B19-8428-B5D1A290EDF3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3824,13 +3827,13 @@
         <v>694458</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>825</v>
@@ -3839,13 +3842,13 @@
         <v>883613</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>1477</v>
@@ -3854,13 +3857,13 @@
         <v>1578071</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3878,13 @@
         <v>190939</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -3890,13 +3893,13 @@
         <v>307875</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>460</v>
@@ -3905,13 +3908,13 @@
         <v>498814</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,10 +3929,10 @@
         <v>64917</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>214</v>
@@ -3956,13 +3959,13 @@
         <v>155643</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3980,13 @@
         <v>15370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3992,13 +3995,13 @@
         <v>32347</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4007,10 +4010,10 @@
         <v>47717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>226</v>
@@ -4034,7 +4037,7 @@
         <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4135,10 +4138,10 @@
         <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>1067</v>
@@ -4150,10 +4153,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>2411</v>
@@ -4162,13 +4165,13 @@
         <v>2556119</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4186,13 @@
         <v>401774</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -4198,13 +4201,13 @@
         <v>427864</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>773</v>
@@ -4213,13 +4216,13 @@
         <v>829638</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4237,13 @@
         <v>117484</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>120</v>
@@ -4249,13 +4252,13 @@
         <v>132127</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>228</v>
@@ -4267,10 +4270,10 @@
         <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,10 +4291,10 @@
         <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4315,13 +4318,13 @@
         <v>64418</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4339,13 @@
         <v>7576</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4351,13 +4354,13 @@
         <v>11043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4366,13 +4369,13 @@
         <v>18619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4440,13 +4443,13 @@
         <v>359620</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>311</v>
@@ -4455,13 +4458,13 @@
         <v>342909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>642</v>
@@ -4470,13 +4473,13 @@
         <v>702529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4494,13 @@
         <v>83098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -4506,13 +4509,13 @@
         <v>93611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -4521,13 +4524,13 @@
         <v>176709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4545,13 @@
         <v>29968</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4557,13 +4560,13 @@
         <v>15363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>54</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -4572,13 +4575,13 @@
         <v>45331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4596,13 @@
         <v>3002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4608,13 +4611,13 @@
         <v>5696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4623,13 +4626,13 @@
         <v>8697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4647,13 @@
         <v>3397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4659,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4674,13 +4677,13 @@
         <v>3397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4751,13 @@
         <v>2465239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H22" s="7">
         <v>2203</v>
@@ -4763,28 +4766,28 @@
         <v>2371480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>4530</v>
       </c>
       <c r="N22" s="7">
-        <v>4836719</v>
+        <v>4836718</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4802,13 @@
         <v>675811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>772</v>
@@ -4814,13 +4817,13 @@
         <v>829350</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>1391</v>
@@ -4829,13 +4832,13 @@
         <v>1505161</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4853,13 @@
         <v>212369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -4868,10 +4871,10 @@
         <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>408</v>
@@ -4880,13 +4883,13 @@
         <v>450585</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4904,13 @@
         <v>42078</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -4916,13 +4919,13 @@
         <v>78754</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -4931,13 +4934,13 @@
         <v>120832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4955,13 @@
         <v>15904</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -4967,13 +4970,13 @@
         <v>30138</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -4982,13 +4985,13 @@
         <v>46042</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,7 +5033,7 @@
         <v>6483</v>
       </c>
       <c r="N27" s="7">
-        <v>6959339</v>
+        <v>6959338</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5063,7 +5066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E688645B-7123-4514-AF39-994C7747AC0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E29896-A786-4261-AC3B-9DA8FB358868}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,7 +5083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5187,13 +5190,13 @@
         <v>410761</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>451</v>
@@ -5202,13 +5205,13 @@
         <v>500249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>862</v>
@@ -5217,13 +5220,13 @@
         <v>911010</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5241,13 @@
         <v>254865</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -5253,13 +5256,13 @@
         <v>321916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>548</v>
@@ -5268,13 +5271,13 @@
         <v>576781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5292,13 @@
         <v>72492</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H6" s="7">
         <v>110</v>
@@ -5304,13 +5307,13 @@
         <v>123873</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>185</v>
@@ -5319,13 +5322,13 @@
         <v>196365</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5343,13 @@
         <v>14365</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -5355,13 +5358,13 @@
         <v>37586</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -5370,13 +5373,13 @@
         <v>51951</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5394,13 @@
         <v>1864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5406,13 +5409,13 @@
         <v>8880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5421,13 +5424,13 @@
         <v>10745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5472,7 @@
         <v>1652</v>
       </c>
       <c r="N9" s="7">
-        <v>1746852</v>
+        <v>1746851</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5495,13 +5498,13 @@
         <v>1179069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>995</v>
@@ -5510,13 +5513,13 @@
         <v>1030416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>2102</v>
@@ -5525,13 +5528,13 @@
         <v>2209486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5549,13 @@
         <v>661612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>676</v>
@@ -5561,13 +5564,13 @@
         <v>706575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>1303</v>
@@ -5576,13 +5579,13 @@
         <v>1368187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5600,13 @@
         <v>187799</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -5612,13 +5615,13 @@
         <v>201666</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M12" s="7">
         <v>363</v>
@@ -5627,13 +5630,13 @@
         <v>389465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5651,13 @@
         <v>27813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -5663,13 +5666,13 @@
         <v>33124</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -5678,13 +5681,13 @@
         <v>60936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5702,13 @@
         <v>16590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5714,13 +5717,13 @@
         <v>13000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -5729,13 +5732,13 @@
         <v>29590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>420</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +5794,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5803,13 +5806,13 @@
         <v>338757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -5818,13 +5821,13 @@
         <v>344999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>646</v>
@@ -5833,13 +5836,13 @@
         <v>683755</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5857,13 @@
         <v>174262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5869,13 +5872,13 @@
         <v>148569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -5884,13 +5887,13 @@
         <v>322831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5908,13 @@
         <v>29847</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5920,13 +5923,13 @@
         <v>42901</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -5935,13 +5938,13 @@
         <v>72749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5959,13 @@
         <v>3155</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5971,10 +5974,10 @@
         <v>9324</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>447</v>
@@ -5986,13 +5989,13 @@
         <v>12478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>448</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>448</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,10 +6010,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>52</v>
@@ -6022,13 +6025,13 @@
         <v>2413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6037,13 +6040,13 @@
         <v>2413</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>450</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>451</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6114,13 @@
         <v>1928588</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>1779</v>
@@ -6126,13 +6129,13 @@
         <v>1875664</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>3610</v>
@@ -6141,13 +6144,13 @@
         <v>3804251</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6165,13 @@
         <v>1090739</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H23" s="7">
         <v>1106</v>
@@ -6177,13 +6180,13 @@
         <v>1177060</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>2150</v>
@@ -6192,13 +6195,13 @@
         <v>2267799</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,10 +6216,10 @@
         <v>290138</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>471</v>
@@ -6228,13 +6231,13 @@
         <v>368441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>38</v>
+        <v>472</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>614</v>
@@ -6243,13 +6246,13 @@
         <v>658579</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>475</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6267,13 @@
         <v>45332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -6279,13 +6282,13 @@
         <v>80034</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -6294,13 +6297,13 @@
         <v>125365</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>481</v>
+        <v>53</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>225</v>
+        <v>482</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>482</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,10 +6321,10 @@
         <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -6330,13 +6333,13 @@
         <v>24294</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -6345,13 +6348,13 @@
         <v>42748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>486</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,7 +6410,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6426,7 +6429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CD8E48-607E-4A5B-9B20-9EE6DA670DFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95E8927-18EE-43AB-AFE4-7E456810C4A3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6443,7 +6446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,13 +6553,13 @@
         <v>276198</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>646</v>
@@ -6565,13 +6568,13 @@
         <v>382735</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>992</v>
@@ -6580,13 +6583,13 @@
         <v>658932</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6604,13 @@
         <v>147752</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>423</v>
@@ -6616,13 +6619,13 @@
         <v>252248</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>608</v>
@@ -6631,13 +6634,13 @@
         <v>400000</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6655,13 @@
         <v>58534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>506</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>191</v>
@@ -6667,13 +6670,13 @@
         <v>104896</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -6682,13 +6685,13 @@
         <v>163430</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6706,13 @@
         <v>41925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>515</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>516</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H7" s="7">
         <v>110</v>
@@ -6718,13 +6721,13 @@
         <v>62928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M7" s="7">
         <v>168</v>
@@ -6733,13 +6736,13 @@
         <v>104853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>520</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>521</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6757,13 @@
         <v>15378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -6769,13 +6772,13 @@
         <v>21689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
@@ -6784,13 +6787,13 @@
         <v>37067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>526</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>439</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6861,13 @@
         <v>1262399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>1561</v>
@@ -6873,13 +6876,13 @@
         <v>1200853</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>2632</v>
@@ -6888,13 +6891,13 @@
         <v>2463252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6912,13 @@
         <v>651965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7">
         <v>1004</v>
@@ -6924,13 +6927,13 @@
         <v>697663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M11" s="7">
         <v>1660</v>
@@ -6939,13 +6942,13 @@
         <v>1349629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6963,13 @@
         <v>164133</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>548</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -6975,13 +6978,13 @@
         <v>255685</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M12" s="7">
         <v>379</v>
@@ -6990,13 +6993,13 @@
         <v>419818</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +7014,13 @@
         <v>47806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -7026,13 +7029,13 @@
         <v>69572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>555</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>559</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -7041,13 +7044,13 @@
         <v>117378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7065,13 @@
         <v>26468</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -7077,13 +7080,13 @@
         <v>21756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -7092,13 +7095,13 @@
         <v>48224</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>562</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,7 +7157,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7166,13 +7169,13 @@
         <v>440074</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>678</v>
@@ -7181,13 +7184,13 @@
         <v>496730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>1113</v>
@@ -7196,13 +7199,13 @@
         <v>936805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7220,13 @@
         <v>177776</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -7232,13 +7235,13 @@
         <v>174017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -7247,13 +7250,13 @@
         <v>351793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>578</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7271,13 @@
         <v>36574</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -7283,13 +7286,13 @@
         <v>22042</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>578</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -7298,13 +7301,13 @@
         <v>58616</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7322,13 @@
         <v>10670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>584</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>588</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7334,13 +7337,13 @@
         <v>13525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -7349,13 +7352,13 @@
         <v>24195</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>586</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7373,13 @@
         <v>3907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7385,13 +7388,13 @@
         <v>4961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>589</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>590</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>591</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7400,13 +7403,13 @@
         <v>8868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7477,13 @@
         <v>1978671</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H22" s="7">
         <v>2885</v>
@@ -7489,13 +7492,13 @@
         <v>2080317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M22" s="7">
         <v>4737</v>
@@ -7504,13 +7507,13 @@
         <v>4058988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7528,13 @@
         <v>977494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H23" s="7">
         <v>1689</v>
@@ -7540,13 +7543,13 @@
         <v>1123928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M23" s="7">
         <v>2722</v>
@@ -7555,13 +7558,13 @@
         <v>2101422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>607</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7579,13 @@
         <v>259240</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -7591,13 +7594,13 @@
         <v>382623</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>711</v>
@@ -7606,13 +7609,13 @@
         <v>641863</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7630,13 @@
         <v>100400</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -7642,13 +7645,13 @@
         <v>146025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -7657,13 +7660,13 @@
         <v>246426</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>622</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7681,13 @@
         <v>45753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>624</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H26" s="7">
         <v>85</v>
@@ -7693,13 +7696,13 @@
         <v>48407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>627</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>628</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -7708,13 +7711,13 @@
         <v>94159</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>562</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,7 +7773,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15BE5C7-73ED-44A8-9B76-A93E8DF54695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8AD14F-01EA-4AD6-BED9-4AB37571F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4E08B47-8A29-4BD3-9176-7CB19CD5583C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55036435-EB35-424F-90B1-CB140DC3F1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="628">
   <si>
     <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>62,79%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
   <si>
     <t>55,95%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>21,91%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,28 +137,28 @@
     <t>10,48%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>Menos de lo que deseo</t>
@@ -167,28 +167,28 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>Mucho menos de lo que deseo</t>
@@ -197,1729 +197,1723 @@
     <t>0,88%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>3,09%</t>
   </si>
   <si>
     <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -2340,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027D10C4-58A5-4CEB-A076-224BE53AE3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E38D5-ABBD-40EB-97BA-C7C9F42109AC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2769,7 +2763,7 @@
         <v>1221</v>
       </c>
       <c r="D10" s="7">
-        <v>1261692</v>
+        <v>1261693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2853,13 +2847,13 @@
         <v>663350</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2868,13 @@
         <v>94110</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -2889,13 +2883,13 @@
         <v>125986</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>211</v>
@@ -2904,13 +2898,13 @@
         <v>220096</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2919,13 @@
         <v>25853</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -2940,13 +2934,13 @@
         <v>53951</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -2955,13 +2949,13 @@
         <v>79804</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2970,13 @@
         <v>8956</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2991,13 +2985,13 @@
         <v>12417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -3006,13 +3000,13 @@
         <v>21373</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +3018,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3068,7 +3062,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3074,13 @@
         <v>389914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -3095,13 +3089,13 @@
         <v>327018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>686</v>
@@ -3110,13 +3104,13 @@
         <v>716932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3125,13 @@
         <v>113859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3146,13 +3140,13 @@
         <v>102147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -3161,13 +3155,13 @@
         <v>216006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3176,13 @@
         <v>32691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3197,13 +3191,13 @@
         <v>29689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3212,13 +3206,13 @@
         <v>62380</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3227,13 @@
         <v>13858</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3248,13 +3242,13 @@
         <v>13058</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3263,13 +3257,13 @@
         <v>26916</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3299,13 +3293,13 @@
         <v>4500</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3314,13 +3308,13 @@
         <v>4500</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3382,13 @@
         <v>2299384</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>2068</v>
@@ -3403,13 +3397,13 @@
         <v>2097549</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>4322</v>
@@ -3418,13 +3412,13 @@
         <v>4396932</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3433,13 @@
         <v>642729</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>724</v>
@@ -3454,13 +3448,13 @@
         <v>748737</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1360</v>
@@ -3469,13 +3463,13 @@
         <v>1391466</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3484,13 @@
         <v>234958</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>306</v>
@@ -3505,13 +3499,13 @@
         <v>320689</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>536</v>
@@ -3520,13 +3514,13 @@
         <v>555647</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3535,13 @@
         <v>80333</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -3556,13 +3550,13 @@
         <v>171184</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -3571,7 +3565,7 @@
         <v>251517</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>182</v>
@@ -3598,7 +3592,7 @@
         <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -3607,13 +3601,13 @@
         <v>41039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -3622,13 +3616,13 @@
         <v>59095</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +3678,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +3697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A15835F-2DB9-4B19-8428-B5D1A290EDF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B0CC1D-F89B-47E7-A237-57E71C5B8330}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,7 +3714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3827,13 +3821,13 @@
         <v>694458</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>825</v>
@@ -3842,13 +3836,13 @@
         <v>883613</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>1477</v>
@@ -3857,13 +3851,13 @@
         <v>1578071</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3872,13 @@
         <v>190939</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -3893,13 +3887,13 @@
         <v>307875</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>460</v>
@@ -3908,13 +3902,13 @@
         <v>498814</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3923,13 @@
         <v>64917</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -3944,13 +3938,13 @@
         <v>90726</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>143</v>
@@ -3959,13 +3953,13 @@
         <v>155643</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3974,13 @@
         <v>15370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3995,13 +3989,13 @@
         <v>32347</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4010,13 +4004,13 @@
         <v>47717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4025,13 @@
         <v>4931</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4046,13 +4040,13 @@
         <v>19096</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4061,13 +4055,13 @@
         <v>24027</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4126,13 @@
         <v>1344</v>
       </c>
       <c r="D10" s="7">
-        <v>1411161</v>
+        <v>1411162</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>236</v>
@@ -4267,7 +4261,7 @@
         <v>249611</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>257</v>
@@ -4288,7 +4282,7 @@
         <v>23706</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>259</v>
@@ -4318,13 +4312,13 @@
         <v>64418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4333,13 @@
         <v>7576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4354,13 +4348,13 @@
         <v>11043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4369,13 +4363,13 @@
         <v>18619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4381,7 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961701</v>
+        <v>1961702</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4431,7 +4425,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4443,13 +4437,13 @@
         <v>359620</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>311</v>
@@ -4458,13 +4452,13 @@
         <v>342909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>642</v>
@@ -4473,13 +4467,13 @@
         <v>702529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4488,13 @@
         <v>83098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -4509,13 +4503,13 @@
         <v>93611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -4524,13 +4518,13 @@
         <v>176709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4539,13 @@
         <v>29968</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4560,13 +4554,13 @@
         <v>15363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -4575,13 +4569,13 @@
         <v>45331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4590,13 @@
         <v>3002</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4611,13 +4605,13 @@
         <v>5696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4626,13 +4620,13 @@
         <v>8697</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4641,13 @@
         <v>3397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4662,13 +4656,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4677,13 +4671,13 @@
         <v>3397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4745,13 @@
         <v>2465239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>2203</v>
@@ -4766,13 +4760,13 @@
         <v>2371480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>4530</v>
@@ -4781,13 +4775,13 @@
         <v>4836718</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4796,13 @@
         <v>675811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>772</v>
@@ -4817,13 +4811,13 @@
         <v>829350</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>1391</v>
@@ -4832,13 +4826,13 @@
         <v>1505161</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4847,13 @@
         <v>212369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -4868,13 +4862,13 @@
         <v>238215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>408</v>
@@ -4883,13 +4877,13 @@
         <v>450585</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4898,13 @@
         <v>42078</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -4919,13 +4913,13 @@
         <v>78754</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -4934,13 +4928,13 @@
         <v>120832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4949,13 @@
         <v>15904</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -4970,13 +4964,13 @@
         <v>30138</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -4985,13 +4979,13 @@
         <v>46042</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>343</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +5041,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5066,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E29896-A786-4261-AC3B-9DA8FB358868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB94368B-D3F3-4DF2-B9C4-F2BBEA02DE13}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5083,7 +5077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5190,13 +5184,13 @@
         <v>410761</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H4" s="7">
         <v>451</v>
@@ -5205,13 +5199,13 @@
         <v>500249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>862</v>
@@ -5220,13 +5214,13 @@
         <v>911010</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5235,13 @@
         <v>254865</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -5256,13 +5250,13 @@
         <v>321916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>548</v>
@@ -5271,13 +5265,13 @@
         <v>576781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5286,13 @@
         <v>72492</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>110</v>
@@ -5307,7 +5301,7 @@
         <v>123873</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>366</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>367</v>
@@ -5343,13 +5337,13 @@
         <v>14365</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -5358,13 +5352,13 @@
         <v>37586</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -5373,13 +5367,13 @@
         <v>51951</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5388,13 @@
         <v>1864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5409,10 +5403,10 @@
         <v>8880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>382</v>
@@ -5427,10 +5421,10 @@
         <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,7 +5466,7 @@
         <v>1652</v>
       </c>
       <c r="N9" s="7">
-        <v>1746851</v>
+        <v>1746852</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5498,13 +5492,13 @@
         <v>1179069</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>995</v>
@@ -5513,13 +5507,13 @@
         <v>1030416</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>2102</v>
@@ -5528,13 +5522,13 @@
         <v>2209486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5543,13 @@
         <v>661612</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>676</v>
@@ -5564,13 +5558,13 @@
         <v>706575</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M11" s="7">
         <v>1303</v>
@@ -5579,13 +5573,13 @@
         <v>1368187</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5594,13 @@
         <v>187799</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -5651,13 +5645,13 @@
         <v>27813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -5666,13 +5660,13 @@
         <v>33124</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -5681,13 +5675,13 @@
         <v>60936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>413</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,10 +5699,10 @@
         <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5717,13 +5711,13 @@
         <v>13000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -5732,13 +5726,13 @@
         <v>29590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,7 +5788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5806,13 +5800,13 @@
         <v>338757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -5821,13 +5815,13 @@
         <v>344999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>646</v>
@@ -5836,13 +5830,13 @@
         <v>683755</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5851,13 @@
         <v>174262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5872,13 +5866,13 @@
         <v>148569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -5887,13 +5881,13 @@
         <v>322831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5902,13 @@
         <v>29847</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5923,13 +5917,13 @@
         <v>42901</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -5938,13 +5932,13 @@
         <v>72749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>446</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>442</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5953,13 @@
         <v>3155</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5974,13 +5968,13 @@
         <v>9324</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>445</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>446</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -5989,13 +5983,13 @@
         <v>12478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6004,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>453</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6025,13 +6019,13 @@
         <v>2413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6040,13 +6034,13 @@
         <v>2413</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6108,13 @@
         <v>1928588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>1779</v>
@@ -6129,13 +6123,13 @@
         <v>1875664</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>3610</v>
@@ -6144,13 +6138,13 @@
         <v>3804251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6159,13 @@
         <v>1090739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
         <v>1106</v>
@@ -6180,13 +6174,13 @@
         <v>1177060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>2150</v>
@@ -6195,13 +6189,13 @@
         <v>2267799</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6210,13 @@
         <v>290138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H24" s="7">
         <v>339</v>
@@ -6231,7 +6225,7 @@
         <v>368441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>472</v>
+        <v>38</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>473</v>
@@ -6252,7 +6246,7 @@
         <v>476</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6261,13 @@
         <v>45332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>477</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>260</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -6282,13 +6276,13 @@
         <v>80034</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -6297,13 +6291,13 @@
         <v>125365</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>53</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,10 +6315,10 @@
         <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -6333,13 +6327,13 @@
         <v>24294</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>269</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -6351,10 +6345,10 @@
         <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,7 +6404,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95E8927-18EE-43AB-AFE4-7E456810C4A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F94A6FB-0CE2-4202-A59F-0228142B543F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6446,7 +6440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6553,13 +6547,13 @@
         <v>276198</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H4" s="7">
         <v>646</v>
@@ -6568,13 +6562,13 @@
         <v>382735</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>992</v>
@@ -6583,13 +6577,13 @@
         <v>658932</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6598,13 @@
         <v>147752</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H5" s="7">
         <v>423</v>
@@ -6619,13 +6613,13 @@
         <v>252248</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>608</v>
@@ -6634,13 +6628,13 @@
         <v>400000</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6649,13 @@
         <v>58534</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H6" s="7">
         <v>191</v>
@@ -6670,13 +6664,13 @@
         <v>104896</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -6685,13 +6679,13 @@
         <v>163430</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6700,13 @@
         <v>41925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H7" s="7">
         <v>110</v>
@@ -6721,13 +6715,13 @@
         <v>62928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>518</v>
+        <v>365</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M7" s="7">
         <v>168</v>
@@ -6736,13 +6730,13 @@
         <v>104853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>517</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6751,13 @@
         <v>15378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -6772,13 +6766,13 @@
         <v>21689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>525</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
@@ -6787,13 +6781,13 @@
         <v>37067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>526</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6855,13 @@
         <v>1262399</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>1561</v>
@@ -6876,13 +6870,13 @@
         <v>1200853</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>533</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M10" s="7">
         <v>2632</v>
@@ -6891,13 +6885,13 @@
         <v>2463252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6906,13 @@
         <v>651965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H11" s="7">
         <v>1004</v>
@@ -6927,13 +6921,13 @@
         <v>697663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M11" s="7">
         <v>1660</v>
@@ -6942,13 +6936,13 @@
         <v>1349629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6957,13 @@
         <v>164133</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -6978,13 +6972,13 @@
         <v>255685</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M12" s="7">
         <v>379</v>
@@ -6996,10 +6990,10 @@
         <v>475</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7008,13 @@
         <v>47806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -7029,13 +7023,13 @@
         <v>69572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>556</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -7044,13 +7038,13 @@
         <v>117378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7059,13 @@
         <v>26468</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -7080,13 +7074,13 @@
         <v>21756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>560</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -7095,13 +7089,13 @@
         <v>48224</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>562</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>563</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,7 +7151,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7169,13 +7163,13 @@
         <v>440074</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>678</v>
@@ -7184,13 +7178,13 @@
         <v>496730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>1113</v>
@@ -7199,13 +7193,13 @@
         <v>936805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7214,13 @@
         <v>177776</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -7235,13 +7229,13 @@
         <v>174017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -7250,13 +7244,13 @@
         <v>351793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>578</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7265,13 @@
         <v>36574</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>582</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -7286,13 +7280,13 @@
         <v>22042</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>410</v>
+        <v>526</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -7301,13 +7295,13 @@
         <v>58616</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7316,13 @@
         <v>10670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7337,13 +7331,13 @@
         <v>13525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>584</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -7352,13 +7346,13 @@
         <v>24195</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7367,13 @@
         <v>3907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>587</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7388,13 +7382,13 @@
         <v>4961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>588</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7403,13 +7397,13 @@
         <v>8868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7471,13 @@
         <v>1978671</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="H22" s="7">
         <v>2885</v>
@@ -7492,13 +7486,13 @@
         <v>2080317</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="M22" s="7">
         <v>4737</v>
@@ -7507,13 +7501,13 @@
         <v>4058988</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7522,13 @@
         <v>977494</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="H23" s="7">
         <v>1689</v>
@@ -7543,13 +7537,13 @@
         <v>1123928</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="M23" s="7">
         <v>2722</v>
@@ -7558,13 +7552,13 @@
         <v>2101422</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,13 +7573,13 @@
         <v>259240</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -7594,13 +7588,13 @@
         <v>382623</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>711</v>
@@ -7609,13 +7603,13 @@
         <v>641863</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7624,13 @@
         <v>100400</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -7645,13 +7639,13 @@
         <v>146025</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -7660,13 +7654,13 @@
         <v>246426</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7675,13 @@
         <v>45753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>626</v>
+        <v>260</v>
       </c>
       <c r="H26" s="7">
         <v>85</v>
@@ -7696,13 +7690,13 @@
         <v>48407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>106</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -7711,13 +7705,13 @@
         <v>94159</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>562</v>
+        <v>227</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7773,7 +7767,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8AD14F-01EA-4AD6-BED9-4AB37571F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79956D43-39D0-4BBB-9D6E-9ACBFF7D48AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55036435-EB35-424F-90B1-CB140DC3F1D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99BF2602-092A-4414-95D1-8D17F2472804}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
   <si>
     <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>62,79%</t>
   </si>
   <si>
-    <t>59,87%</t>
+    <t>59,92%</t>
   </si>
   <si>
     <t>65,77%</t>
@@ -86,19 +86,19 @@
     <t>55,95%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1822 +107,1825 @@
     <t>21,91%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E38D5-ABBD-40EB-97BA-C7C9F42109AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BDC6CF-E3FF-4050-B400-BC544EE6AF11}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2763,7 +2766,7 @@
         <v>1221</v>
       </c>
       <c r="D10" s="7">
-        <v>1261693</v>
+        <v>1261692</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2847,13 +2850,13 @@
         <v>663350</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2871,13 @@
         <v>94110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -2883,13 +2886,13 @@
         <v>125986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>211</v>
@@ -2898,13 +2901,13 @@
         <v>220096</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,10 +2922,10 @@
         <v>25853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>90</v>
@@ -2988,10 +2991,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -3000,13 +3003,13 @@
         <v>21373</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +3021,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3062,7 +3065,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3074,13 +3077,13 @@
         <v>389914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -3089,13 +3092,13 @@
         <v>327018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>686</v>
@@ -3104,13 +3107,13 @@
         <v>716932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3128,13 @@
         <v>113859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3140,13 +3143,13 @@
         <v>102147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -3155,13 +3158,13 @@
         <v>216006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3179,13 @@
         <v>32691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -3191,13 +3194,13 @@
         <v>29689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3206,13 +3209,13 @@
         <v>62380</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3230,13 @@
         <v>13858</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3242,13 +3245,13 @@
         <v>13058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3257,13 +3260,13 @@
         <v>26916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3293,13 +3296,13 @@
         <v>4500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3469,7 +3472,7 @@
         <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3595,7 @@
         <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -3601,13 +3604,13 @@
         <v>41039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -3616,13 +3619,13 @@
         <v>59095</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3681,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B0CC1D-F89B-47E7-A237-57E71C5B8330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79CE8D-43A7-4E86-BA03-FD813505D2D3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3714,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3821,13 +3824,13 @@
         <v>694458</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>825</v>
@@ -3836,13 +3839,13 @@
         <v>883613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>1477</v>
@@ -3851,13 +3854,13 @@
         <v>1578071</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3875,13 @@
         <v>190939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -3887,13 +3890,13 @@
         <v>307875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>460</v>
@@ -3902,13 +3905,13 @@
         <v>498814</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3926,13 @@
         <v>64917</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -3938,13 +3941,13 @@
         <v>90726</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>143</v>
@@ -3953,13 +3956,13 @@
         <v>155643</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3977,13 @@
         <v>15370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3992,10 +3995,10 @@
         <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4004,13 +4007,13 @@
         <v>47717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4028,13 @@
         <v>4931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4040,13 +4043,13 @@
         <v>19096</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4055,13 +4058,13 @@
         <v>24027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,16 +4129,16 @@
         <v>1344</v>
       </c>
       <c r="D10" s="7">
-        <v>1411162</v>
+        <v>1411161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>1067</v>
@@ -4147,10 +4150,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>2411</v>
@@ -4159,13 +4162,13 @@
         <v>2556119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4183,13 @@
         <v>401774</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -4195,13 +4198,13 @@
         <v>427864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>773</v>
@@ -4210,13 +4213,13 @@
         <v>829638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4234,13 @@
         <v>117484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>120</v>
@@ -4246,13 +4249,13 @@
         <v>132127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>228</v>
@@ -4261,13 +4264,13 @@
         <v>249611</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4285,13 @@
         <v>23706</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4366,10 +4369,10 @@
         <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4384,7 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961702</v>
+        <v>1961701</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4437,13 +4440,13 @@
         <v>359620</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>311</v>
@@ -4452,13 +4455,13 @@
         <v>342909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>642</v>
@@ -4467,13 +4470,13 @@
         <v>702529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4491,13 @@
         <v>83098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -4503,13 +4506,13 @@
         <v>93611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -4518,13 +4521,13 @@
         <v>176709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4542,13 @@
         <v>29968</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -4554,13 +4557,13 @@
         <v>15363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>176</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -4569,13 +4572,13 @@
         <v>45331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4599,7 @@
         <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4605,13 +4608,13 @@
         <v>5696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4620,13 +4623,13 @@
         <v>8697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4644,13 @@
         <v>3397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4656,13 +4659,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4671,13 +4674,13 @@
         <v>3397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4748,13 @@
         <v>2465239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>2203</v>
@@ -4760,28 +4763,28 @@
         <v>2371480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>4530</v>
       </c>
       <c r="N22" s="7">
-        <v>4836718</v>
+        <v>4836719</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4799,13 @@
         <v>675811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>772</v>
@@ -4811,13 +4814,13 @@
         <v>829350</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>1391</v>
@@ -4826,13 +4829,13 @@
         <v>1505161</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4850,13 @@
         <v>212369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>215</v>
@@ -4862,13 +4865,13 @@
         <v>238215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>408</v>
@@ -4877,13 +4880,13 @@
         <v>450585</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4901,13 @@
         <v>42078</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>51</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -4913,13 +4916,13 @@
         <v>78754</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -4928,13 +4931,13 @@
         <v>120832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>53</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,10 +4952,10 @@
         <v>15904</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>100</v>
@@ -4964,13 +4967,13 @@
         <v>30138</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -4979,13 +4982,13 @@
         <v>46042</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,7 +5030,7 @@
         <v>6483</v>
       </c>
       <c r="N27" s="7">
-        <v>6959338</v>
+        <v>6959339</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5041,7 +5044,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5060,7 +5063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB94368B-D3F3-4DF2-B9C4-F2BBEA02DE13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149218E7-8BFF-40AE-9A17-399B58D56ED3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5077,7 +5080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5184,13 +5187,13 @@
         <v>410761</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>451</v>
@@ -5199,13 +5202,13 @@
         <v>500249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>862</v>
@@ -5214,13 +5217,13 @@
         <v>911010</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5238,13 @@
         <v>254865</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>289</v>
@@ -5250,13 +5253,13 @@
         <v>321916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>548</v>
@@ -5265,13 +5268,13 @@
         <v>576781</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5289,13 @@
         <v>72492</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>110</v>
@@ -5301,13 +5304,13 @@
         <v>123873</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>185</v>
@@ -5316,13 +5319,13 @@
         <v>196365</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5340,13 @@
         <v>14365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>375</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -5352,13 +5355,13 @@
         <v>37586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>374</v>
+        <v>138</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -5367,13 +5370,13 @@
         <v>51951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5391,13 @@
         <v>1864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5403,13 +5406,13 @@
         <v>8880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5418,13 +5421,13 @@
         <v>10745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5495,13 @@
         <v>1179069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>995</v>
@@ -5507,13 +5510,13 @@
         <v>1030416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>2102</v>
@@ -5522,13 +5525,13 @@
         <v>2209486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5546,13 @@
         <v>661612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>676</v>
@@ -5558,13 +5561,13 @@
         <v>706575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M11" s="7">
         <v>1303</v>
@@ -5573,13 +5576,13 @@
         <v>1368187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5597,13 @@
         <v>187799</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -5609,13 +5612,13 @@
         <v>201666</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>363</v>
@@ -5624,13 +5627,13 @@
         <v>389465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5648,13 @@
         <v>27813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -5660,13 +5663,13 @@
         <v>33124</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -5675,13 +5678,13 @@
         <v>60936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>416</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5699,13 @@
         <v>16590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>415</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5711,13 +5714,13 @@
         <v>13000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>419</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -5726,13 +5729,13 @@
         <v>29590</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,7 +5791,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5800,13 +5803,13 @@
         <v>338757</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -5815,13 +5818,13 @@
         <v>344999</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>646</v>
@@ -5830,13 +5833,13 @@
         <v>683755</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5854,13 @@
         <v>174262</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5866,13 +5869,13 @@
         <v>148569</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -5881,13 +5884,13 @@
         <v>322831</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5905,13 @@
         <v>29847</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5917,13 +5920,13 @@
         <v>42901</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M18" s="7">
         <v>66</v>
@@ -5932,13 +5935,13 @@
         <v>72749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>446</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>447</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5956,13 @@
         <v>3155</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5968,13 +5971,13 @@
         <v>9324</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -5983,13 +5986,13 @@
         <v>12478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>448</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6022,10 +6025,10 @@
         <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6034,13 +6037,13 @@
         <v>2413</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6111,13 @@
         <v>1928588</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>1779</v>
@@ -6123,13 +6126,13 @@
         <v>1875664</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>3610</v>
@@ -6138,13 +6141,13 @@
         <v>3804251</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6162,13 @@
         <v>1090739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H23" s="7">
         <v>1106</v>
@@ -6213,10 +6216,10 @@
         <v>470</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H24" s="7">
         <v>339</v>
@@ -6228,10 +6231,10 @@
         <v>38</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>614</v>
@@ -6240,13 +6243,13 @@
         <v>658579</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6264,13 @@
         <v>45332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>476</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>260</v>
+        <v>477</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -6279,10 +6282,10 @@
         <v>478</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>479</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M25" s="7">
         <v>116</v>
@@ -6291,13 +6294,13 @@
         <v>125365</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,10 +6318,10 @@
         <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -6327,13 +6330,13 @@
         <v>24294</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>269</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>486</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -6342,13 +6345,13 @@
         <v>42748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6407,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6423,7 +6426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F94A6FB-0CE2-4202-A59F-0228142B543F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A41AF9-6A43-437C-8859-0E89D209D50E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6440,7 +6443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6547,13 +6550,13 @@
         <v>276198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>646</v>
@@ -6562,13 +6565,13 @@
         <v>382735</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>992</v>
@@ -6577,13 +6580,13 @@
         <v>658932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6601,13 @@
         <v>147752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>423</v>
@@ -6613,13 +6616,13 @@
         <v>252248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>608</v>
@@ -6628,13 +6631,13 @@
         <v>400000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6652,13 @@
         <v>58534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>191</v>
@@ -6664,13 +6667,13 @@
         <v>104896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>267</v>
@@ -6679,13 +6682,13 @@
         <v>163430</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6703,13 @@
         <v>41925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>513</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H7" s="7">
         <v>110</v>
@@ -6715,13 +6718,13 @@
         <v>62928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>365</v>
+        <v>517</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M7" s="7">
         <v>168</v>
@@ -6730,13 +6733,13 @@
         <v>104853</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>519</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,10 +6754,10 @@
         <v>15378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>520</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>521</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>522</v>
@@ -6766,13 +6769,13 @@
         <v>21689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>523</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>524</v>
+        <v>439</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
@@ -6787,7 +6790,7 @@
         <v>526</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>527</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6858,13 @@
         <v>1262399</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="H10" s="7">
         <v>1561</v>
@@ -6870,7 +6873,7 @@
         <v>1200853</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>530</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>531</v>
@@ -6957,13 +6960,13 @@
         <v>164133</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -6972,13 +6975,13 @@
         <v>255685</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M12" s="7">
         <v>379</v>
@@ -6987,13 +6990,13 @@
         <v>419818</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7011,13 @@
         <v>47806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -7023,13 +7026,13 @@
         <v>69572</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>556</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>557</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -7038,13 +7041,13 @@
         <v>117378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7062,13 @@
         <v>26468</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -7074,13 +7077,13 @@
         <v>21756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -7089,13 +7092,13 @@
         <v>48224</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,7 +7154,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7163,13 +7166,13 @@
         <v>440074</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>678</v>
@@ -7178,13 +7181,13 @@
         <v>496730</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>1113</v>
@@ -7193,13 +7196,13 @@
         <v>936805</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7217,13 @@
         <v>177776</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -7229,13 +7232,13 @@
         <v>174017</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -7244,13 +7247,13 @@
         <v>351793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7268,13 @@
         <v>36574</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -7280,13 +7283,13 @@
         <v>22042</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -7295,13 +7298,13 @@
         <v>58616</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7319,13 @@
         <v>10670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>584</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>583</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7331,13 +7334,13 @@
         <v>13525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>584</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -7346,13 +7349,13 @@
         <v>24195</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>586</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7370,13 @@
         <v>3907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7382,13 +7385,13 @@
         <v>4961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>590</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>589</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -7397,13 +7400,13 @@
         <v>8868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,10 +7474,10 @@
         <v>1978671</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>592</v>
+        <v>532</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>593</v>
@@ -7579,7 +7582,7 @@
         <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>611</v>
+        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -7588,10 +7591,10 @@
         <v>382623</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>613</v>
@@ -7627,7 +7630,7 @@
         <v>617</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>413</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>618</v>
@@ -7660,7 +7663,7 @@
         <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7678,13 @@
         <v>45753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>624</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>260</v>
+        <v>625</v>
       </c>
       <c r="H26" s="7">
         <v>85</v>
@@ -7690,13 +7693,13 @@
         <v>48407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>626</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -7705,13 +7708,13 @@
         <v>94159</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,7 +7770,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79956D43-39D0-4BBB-9D6E-9ACBFF7D48AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C4E558F-2376-4AB5-B3A1-D903489F888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99BF2602-092A-4414-95D1-8D17F2472804}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B15BB3EF-6499-49EF-B57C-EE15BE7F1032}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="630">
   <si>
     <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -1511,301 +1511,313 @@
     <t>Población según la frecuencia de recibir ayuda cuando se está enfermo en la cama en 2023 (Tasa respuesta: 99,43%)</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>31,07%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -1814,118 +1826,109 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BDC6CF-E3FF-4050-B400-BC544EE6AF11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7600B338-68BB-4FBD-A0C4-BE939682CCC8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2488,7 +2491,7 @@
         <v>1391</v>
       </c>
       <c r="N4" s="7">
-        <v>1383538</v>
+        <v>1383537</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2590,7 +2593,7 @@
         <v>268</v>
       </c>
       <c r="N6" s="7">
-        <v>273171</v>
+        <v>273170</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2743,7 +2746,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2766,7 +2769,7 @@
         <v>1221</v>
       </c>
       <c r="D10" s="7">
-        <v>1261692</v>
+        <v>1261693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3021,7 +3024,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3397,7 +3400,7 @@
         <v>2068</v>
       </c>
       <c r="I22" s="7">
-        <v>2097549</v>
+        <v>2097548</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -3652,7 +3655,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3700,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79CE8D-43A7-4E86-BA03-FD813505D2D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E06E62-BAF8-4F57-8CA5-7D3E6D4454D1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4760,7 +4763,7 @@
         <v>2203</v>
       </c>
       <c r="I22" s="7">
-        <v>2371480</v>
+        <v>2371479</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>313</v>
@@ -5015,7 +5018,7 @@
         <v>3289</v>
       </c>
       <c r="I27" s="7">
-        <v>3547938</v>
+        <v>3547937</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5063,7 +5066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149218E7-8BFF-40AE-9A17-399B58D56ED3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0916176E-2A90-4AAE-864C-42CCA88D0CDE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5469,7 +5472,7 @@
         <v>1652</v>
       </c>
       <c r="N9" s="7">
-        <v>1746852</v>
+        <v>1746851</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6123,7 +6126,7 @@
         <v>1779</v>
       </c>
       <c r="I22" s="7">
-        <v>1875664</v>
+        <v>1875663</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>455</v>
@@ -6225,7 +6228,7 @@
         <v>339</v>
       </c>
       <c r="I24" s="7">
-        <v>368441</v>
+        <v>368440</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>38</v>
@@ -6327,7 +6330,7 @@
         <v>23</v>
       </c>
       <c r="I26" s="7">
-        <v>24294</v>
+        <v>24293</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>485</v>
@@ -6378,7 +6381,7 @@
         <v>3320</v>
       </c>
       <c r="I27" s="7">
-        <v>3525492</v>
+        <v>3525491</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6426,7 +6429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A41AF9-6A43-437C-8859-0E89D209D50E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF14A6E-B06E-4F87-A918-796F68E18A11}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6547,7 +6550,7 @@
         <v>346</v>
       </c>
       <c r="D4" s="7">
-        <v>276198</v>
+        <v>269076</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>490</v>
@@ -6562,7 +6565,7 @@
         <v>646</v>
       </c>
       <c r="I4" s="7">
-        <v>382735</v>
+        <v>353434</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>493</v>
@@ -6577,7 +6580,7 @@
         <v>992</v>
       </c>
       <c r="N4" s="7">
-        <v>658932</v>
+        <v>622510</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>496</v>
@@ -6598,7 +6601,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>147752</v>
+        <v>138739</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>499</v>
@@ -6613,7 +6616,7 @@
         <v>423</v>
       </c>
       <c r="I5" s="7">
-        <v>252248</v>
+        <v>223586</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>502</v>
@@ -6628,7 +6631,7 @@
         <v>608</v>
       </c>
       <c r="N5" s="7">
-        <v>400000</v>
+        <v>362325</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>505</v>
@@ -6649,10 +6652,10 @@
         <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>58534</v>
+        <v>53724</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>508</v>
@@ -6664,7 +6667,7 @@
         <v>191</v>
       </c>
       <c r="I6" s="7">
-        <v>104896</v>
+        <v>93399</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>510</v>
@@ -6679,7 +6682,7 @@
         <v>267</v>
       </c>
       <c r="N6" s="7">
-        <v>163430</v>
+        <v>147122</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>513</v>
@@ -6700,46 +6703,46 @@
         <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>41925</v>
+        <v>37455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>516</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>517</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>110</v>
       </c>
       <c r="I7" s="7">
-        <v>62928</v>
+        <v>55372</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>168</v>
       </c>
       <c r="N7" s="7">
-        <v>104853</v>
+        <v>92828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>521</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,46 +6754,46 @@
         <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>15378</v>
+        <v>14193</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
       </c>
       <c r="I8" s="7">
-        <v>21689</v>
+        <v>19395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
       </c>
       <c r="N8" s="7">
-        <v>37067</v>
+        <v>33588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>525</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>439</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,7 +6805,7 @@
         <v>689</v>
       </c>
       <c r="D9" s="7">
-        <v>539786</v>
+        <v>513187</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6817,7 +6820,7 @@
         <v>1409</v>
       </c>
       <c r="I9" s="7">
-        <v>824496</v>
+        <v>745186</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6832,7 +6835,7 @@
         <v>2098</v>
       </c>
       <c r="N9" s="7">
-        <v>1364282</v>
+        <v>1258373</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6855,46 +6858,46 @@
         <v>1071</v>
       </c>
       <c r="D10" s="7">
-        <v>1262399</v>
+        <v>1456707</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>1561</v>
       </c>
       <c r="I10" s="7">
-        <v>1200853</v>
+        <v>1192643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>2632</v>
       </c>
       <c r="N10" s="7">
-        <v>2463252</v>
+        <v>2649350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,46 +6909,46 @@
         <v>656</v>
       </c>
       <c r="D11" s="7">
-        <v>651965</v>
+        <v>605084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7">
         <v>1004</v>
       </c>
       <c r="I11" s="7">
-        <v>697663</v>
+        <v>625021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M11" s="7">
         <v>1660</v>
       </c>
       <c r="N11" s="7">
-        <v>1349629</v>
+        <v>1230105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,46 +6960,46 @@
         <v>171</v>
       </c>
       <c r="D12" s="7">
-        <v>164133</v>
+        <v>152456</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>548</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>546</v>
+        <v>440</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
       </c>
       <c r="I12" s="7">
-        <v>255685</v>
+        <v>335191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M12" s="7">
         <v>379</v>
       </c>
       <c r="N12" s="7">
-        <v>419818</v>
+        <v>487647</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>550</v>
+        <v>127</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,46 +7011,46 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>47806</v>
+        <v>43241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>69572</v>
+        <v>61461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>558</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
       </c>
       <c r="N13" s="7">
-        <v>117378</v>
+        <v>104702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,46 +7062,46 @@
         <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>26468</v>
+        <v>23720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>484</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>21756</v>
+        <v>19864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>48224</v>
+        <v>43584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,7 +7113,7 @@
         <v>1982</v>
       </c>
       <c r="D15" s="7">
-        <v>2152770</v>
+        <v>2281208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7125,7 +7128,7 @@
         <v>2915</v>
       </c>
       <c r="I15" s="7">
-        <v>2245530</v>
+        <v>2234180</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7140,7 +7143,7 @@
         <v>4897</v>
       </c>
       <c r="N15" s="7">
-        <v>4398300</v>
+        <v>4515388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7163,46 +7166,46 @@
         <v>435</v>
       </c>
       <c r="D16" s="7">
-        <v>440074</v>
+        <v>426422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H16" s="7">
         <v>678</v>
       </c>
       <c r="I16" s="7">
-        <v>496730</v>
+        <v>463620</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M16" s="7">
         <v>1113</v>
       </c>
       <c r="N16" s="7">
-        <v>936805</v>
+        <v>890041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,46 +7217,46 @@
         <v>192</v>
       </c>
       <c r="D17" s="7">
-        <v>177776</v>
+        <v>163908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
       </c>
       <c r="I17" s="7">
-        <v>174017</v>
+        <v>157839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
       </c>
       <c r="N17" s="7">
-        <v>351793</v>
+        <v>321747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>578</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,46 +7268,46 @@
         <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>36574</v>
+        <v>39092</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>22042</v>
+        <v>19658</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>58616</v>
+        <v>58750</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>581</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,46 +7319,46 @@
         <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>10670</v>
+        <v>9991</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>583</v>
+        <v>446</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>584</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>13525</v>
+        <v>12437</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>588</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>585</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
       </c>
       <c r="N19" s="7">
-        <v>24195</v>
+        <v>22428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>586</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,46 +7370,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>3907</v>
+        <v>3445</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>445</v>
+        <v>590</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>4961</v>
+        <v>4597</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>8868</v>
+        <v>8042</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>591</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,7 +7421,7 @@
         <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>669001</v>
+        <v>642859</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7433,7 +7436,7 @@
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>711275</v>
+        <v>658151</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7448,7 +7451,7 @@
         <v>1677</v>
       </c>
       <c r="N21" s="7">
-        <v>1380277</v>
+        <v>1301009</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7471,46 +7474,46 @@
         <v>1852</v>
       </c>
       <c r="D22" s="7">
-        <v>1978671</v>
+        <v>2152206</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>2885</v>
       </c>
       <c r="I22" s="7">
-        <v>2080317</v>
+        <v>2009697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>4737</v>
       </c>
       <c r="N22" s="7">
-        <v>4058988</v>
+        <v>4161903</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,46 +7525,46 @@
         <v>1033</v>
       </c>
       <c r="D23" s="7">
-        <v>977494</v>
+        <v>907731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="H23" s="7">
         <v>1689</v>
       </c>
       <c r="I23" s="7">
-        <v>1123928</v>
+        <v>1006446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="M23" s="7">
         <v>2722</v>
       </c>
       <c r="N23" s="7">
-        <v>2101422</v>
+        <v>1914178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,46 +7576,46 @@
         <v>281</v>
       </c>
       <c r="D24" s="7">
-        <v>259240</v>
+        <v>245272</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>609</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>615</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
       </c>
       <c r="I24" s="7">
-        <v>382623</v>
+        <v>448247</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="M24" s="7">
         <v>711</v>
       </c>
       <c r="N24" s="7">
-        <v>641863</v>
+        <v>693519</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,46 +7627,46 @@
         <v>122</v>
       </c>
       <c r="D25" s="7">
-        <v>100400</v>
+        <v>90687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>622</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
       </c>
       <c r="I25" s="7">
-        <v>146025</v>
+        <v>129270</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>621</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
       </c>
       <c r="N25" s="7">
-        <v>246426</v>
+        <v>219957</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,46 +7678,46 @@
         <v>59</v>
       </c>
       <c r="D26" s="7">
-        <v>45753</v>
+        <v>41358</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>624</v>
+        <v>484</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>85</v>
       </c>
       <c r="I26" s="7">
-        <v>48407</v>
+        <v>43856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>629</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
       </c>
       <c r="N26" s="7">
-        <v>94159</v>
+        <v>85214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>626</v>
+        <v>272</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7729,7 @@
         <v>3347</v>
       </c>
       <c r="D27" s="7">
-        <v>3361558</v>
+        <v>3437254</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7741,7 +7744,7 @@
         <v>5325</v>
       </c>
       <c r="I27" s="7">
-        <v>3781300</v>
+        <v>3637517</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7756,7 +7759,7 @@
         <v>8672</v>
       </c>
       <c r="N27" s="7">
-        <v>7142858</v>
+        <v>7074771</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
